--- a/analysis/results/parametric_regressions_all_market_Other.xlsx
+++ b/analysis/results/parametric_regressions_all_market_Other.xlsx
@@ -18,330 +18,474 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="239">
+  <si>
+    <t xml:space="preserve">                      OLS Regression Results                      </t>
+  </si>
+  <si>
+    <t>Fixed Effects</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dep. Variable:   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MktShare        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  R-squared:         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   0.522 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Model:           </t>
+  </si>
+  <si>
+    <t xml:space="preserve">OLS             </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Adj. R-squared:    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   0.448 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Method:          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Least Squares   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  F-statistic:       </t>
+  </si>
+  <si>
+    <t>2.195e+13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Date:            </t>
+  </si>
+  <si>
+    <t>Thu</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 22 Mar 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Prob (F-statistic):</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  0.00   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Time:            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">14:32:57        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Log-Likelihood:    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  169.83 </t>
+  </si>
+  <si>
+    <t>No. Observations:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  1072          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  AIC:               </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -47.66 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Df Residuals:    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   926          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  BIC:               </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   679.0 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Df Model:        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   145          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">                     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Covariance Type: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">HC0             </t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   coef   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> std err </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    t    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">P&gt;|t| </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  [0.025 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  0.975] </t>
+  </si>
+  <si>
+    <t xml:space="preserve">const                                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.3860</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.185</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    2.081</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.038</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.750</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PrImp_Pct                              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   -0.5998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.142</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   -4.220</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   -0.879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   -0.321</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PrImp_Pct_Rebate_Dummy                 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.2748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    1.184</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.237</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   -0.181</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.730</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PrImp_AvgAmt                           </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    3.6485</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    2.570</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    1.420</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   -1.395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    8.693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PrImp_AvgAmt_Rebate_Dummy              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    1.5938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    3.340</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.477</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   -4.961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    8.149</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PrImp_AvgT                             </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   -0.0014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   -2.704</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   -0.002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   -0.000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PrImp_AvgT_Rebate_Dummy                </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.0015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    1.969</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.049</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 5.11e-06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Omnibus:      </t>
+  </si>
+  <si>
+    <t>102.217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Durbin-Watson:     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   1.957 </t>
+  </si>
+  <si>
+    <t>Prob(Omnibus):</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.000 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Jarque-Bera (JB):  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 630.658 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Skew:         </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.137 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Prob(JB):          </t>
+  </si>
+  <si>
+    <t>1.13e-137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kurtosis:     </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6.748 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Cond. No.          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.24e+18 </t>
+  </si>
   <si>
     <t xml:space="preserve">                       OLS Regression Results                      </t>
   </si>
   <si>
-    <t>Fixed Effects</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dep. Variable:   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">MktShare        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">  R-squared:         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">   0.523  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Model:           </t>
-  </si>
-  <si>
-    <t xml:space="preserve">OLS             </t>
-  </si>
-  <si>
-    <t xml:space="preserve">  Adj. R-squared:    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">   0.447  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Method:          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Least Squares   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">  F-statistic:       </t>
-  </si>
-  <si>
-    <t>-1.737e+13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Date:            </t>
-  </si>
-  <si>
-    <t>Wed</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 21 Mar 2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  Prob (F-statistic):</t>
+    <t xml:space="preserve">   0.511  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   0.436  </t>
+  </si>
+  <si>
+    <t>-7.366e+11</t>
   </si>
   <si>
     <t xml:space="preserve">  1.00    </t>
   </si>
   <si>
-    <t xml:space="preserve">Time:            </t>
-  </si>
-  <si>
-    <t xml:space="preserve">19:55:48        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">  Log-Likelihood:    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">  170.49  </t>
-  </si>
-  <si>
-    <t>No. Observations:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  1073          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">  AIC:               </t>
-  </si>
-  <si>
-    <t xml:space="preserve">  -46.97  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Df Residuals:    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">   926          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">  BIC:               </t>
-  </si>
-  <si>
-    <t xml:space="preserve">   684.8  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Df Model:        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">   146          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">                     </t>
+    <t xml:space="preserve">14:32:58        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  157.22  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -26.43  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   928          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   690.3  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   143          </t>
   </si>
   <si>
     <t xml:space="preserve">          </t>
   </si>
   <si>
-    <t xml:space="preserve">Covariance Type: </t>
-  </si>
-  <si>
-    <t xml:space="preserve">HC0             </t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">   coef   </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> std err </t>
-  </si>
-  <si>
-    <t xml:space="preserve">    t    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">P&gt;|t| </t>
-  </si>
-  <si>
-    <t xml:space="preserve">  [0.025 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">  0.975] </t>
-  </si>
-  <si>
-    <t xml:space="preserve">const                                  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">    0.3860</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    0.185</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2.081</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.038</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    0.022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    0.750</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PrImp_Pct                              </t>
-  </si>
-  <si>
-    <t xml:space="preserve">   -0.5998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    0.142</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   -4.220</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   -0.879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   -0.321</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PrImp_Pct_Rebate_Dummy                 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">    0.2748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    0.232</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1.184</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.237</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   -0.181</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    0.730</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PrImp_AvgAmt                           </t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3.6485</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2.570</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1.420</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   -1.395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8.693</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PrImp_AvgAmt_Rebate_Dummy              </t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1.5938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3.340</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    0.477</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   -4.961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8.149</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PrImp_AvgT                             </t>
-  </si>
-  <si>
-    <t xml:space="preserve">   -0.0014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    0.001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   -2.704</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   -0.002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   -0.000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PrImp_AvgT_Rebate_Dummy                </t>
-  </si>
-  <si>
-    <t xml:space="preserve">    0.0015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1.969</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.049</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 5.11e-06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    0.003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Omnibus:      </t>
-  </si>
-  <si>
-    <t>102.454</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  Durbin-Watson:     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">   1.993 </t>
-  </si>
-  <si>
-    <t>Prob(Omnibus):</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.000 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">  Jarque-Bera (JB):  </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 633.360 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Skew:         </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.137 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">  Prob(JB):          </t>
-  </si>
-  <si>
-    <t>2.93e-138</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kurtosis:     </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 6.754 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">  Cond. No.          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.18e+19 </t>
+    <t xml:space="preserve">    0.0767</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.755</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   -0.123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.276</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PrImp_ExpAmt                           </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -11.5118</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    6.800</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   -1.693</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.091</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -24.857</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    1.834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PrImp_ExpAmt_Rebate_Dummy              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   21.5220</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    8.355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    2.576</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    5.124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   37.920</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   -0.0012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   -1.636</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   -0.003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.0012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    1.262</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   -0.001</t>
+  </si>
+  <si>
+    <t>109.813</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   1.982 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 682.848 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.209 </t>
+  </si>
+  <si>
+    <t>5.27e-149</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6.888 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.11e+17 </t>
   </si>
   <si>
     <t xml:space="preserve">                      OLS Regression Results                     </t>
@@ -350,352 +494,247 @@
     <t>Random Effects</t>
   </si>
   <si>
-    <t xml:space="preserve">   0.010</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   0.008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   7.146</t>
-  </si>
-  <si>
-    <t>1.01e-05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  1378.4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  2895          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">  -2749.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  2891          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">  -2725.</t>
+    <t xml:space="preserve">   0.020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   0.019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   14.91</t>
+  </si>
+  <si>
+    <t>5.11e-17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  1581.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  6708          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -3151.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  6702          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -3110.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     6          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">                         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PrImp_Pct                </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   -0.2684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   -5.719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   -0.360</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   -0.176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PrImp_Pct_Rebate_Dummy   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   -0.0666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.087</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   -0.767</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   -0.237</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PrImp_AvgAmt             </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    5.3334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    1.608</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    3.316</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    2.181</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    8.486</t>
+  </si>
+  <si>
+    <t>PrImp_AvgAmt_Rebate_Dummy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   -5.3048</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   -3.298</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   -8.458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   -2.152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">All_AvgT                 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   -0.0015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   -4.295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">All_AvgT_Rebate_Dummy    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.0020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    3.965</t>
+  </si>
+  <si>
+    <t>1177.812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   1.628 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.000  </t>
+  </si>
+  <si>
+    <t>12465.364</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.521  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.00 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9.596  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.23e+04 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   0.005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   0.004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   6.034</t>
+  </si>
+  <si>
+    <t>7.64e-05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  1530.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -3053.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  6704          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -3026.</t>
   </si>
   <si>
     <t xml:space="preserve">     4          </t>
   </si>
   <si>
-    <t xml:space="preserve">        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">                         </t>
-  </si>
-  <si>
     <t xml:space="preserve">PrImp_ExpAmt             </t>
   </si>
   <si>
-    <t xml:space="preserve">   17.8577</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3.835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4.656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10.338</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   25.378</t>
+    <t xml:space="preserve">    4.5377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    2.927</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    1.550</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   -1.201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   10.276</t>
   </si>
   <si>
     <t>PrImp_ExpAmt_Rebate_Dummy</t>
   </si>
   <si>
-    <t xml:space="preserve">  -11.6750</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4.926</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   -2.370</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  -21.333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   -2.017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PrImp_AvgT               </t>
-  </si>
-  <si>
-    <t xml:space="preserve">   -0.0292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    0.013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   -2.237</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   -0.055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   -0.004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PrImp_AvgT_Rebate_Dummy  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">    0.0288</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2.207</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    0.054</t>
-  </si>
-  <si>
-    <t>1112.468</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   1.803 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.000  </t>
-  </si>
-  <si>
-    <t>63417.440</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1.015  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">    0.00 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.839  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.56e+04 </t>
-  </si>
-  <si>
-    <t>-4.159e+11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  -46.99  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">    0.186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2.080</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   -0.5994</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   -4.218</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   -0.878</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   -0.320</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    0.2740</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1.181</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    0.729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3.5586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2.543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1.399</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.162</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   -1.432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8.549</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1.7291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3.315</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    0.522</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   -4.776</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8.234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">All_AvgT                               </t>
-  </si>
-  <si>
-    <t xml:space="preserve">   -0.0011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    0.000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   -2.775</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">All_AvgT_Rebate_Dummy                  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">    0.0012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1.954</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.051</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> -4.9e-06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    0.002</t>
-  </si>
-  <si>
-    <t>102.384</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   1.992 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 633.086 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.135 </t>
-  </si>
-  <si>
-    <t>3.37e-138</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 6.753 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.20e+17 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">   6.435</t>
-  </si>
-  <si>
-    <t>3.75e-05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  1378.6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   17.1341</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3.808</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4.500</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9.668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   24.600</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  -11.9620</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4.919</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   -2.432</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  -21.607</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   -2.317</t>
-  </si>
-  <si>
-    <t xml:space="preserve">All_AvgT                 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">   -0.0007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   -1.451</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.147</t>
-  </si>
-  <si>
-    <t xml:space="preserve">All_AvgT_Rebate_Dummy    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">    0.0013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1.853</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.064</t>
-  </si>
-  <si>
-    <t>-7.43e-05</t>
-  </si>
-  <si>
-    <t>1121.527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   1.801 </t>
-  </si>
-  <si>
-    <t>63070.485</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1.034  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.772  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.65e+04 </t>
+    <t xml:space="preserve">   -4.5374</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   -1.550</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -10.276</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    1.201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   -0.0016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   -4.586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    4.052</t>
+  </si>
+  <si>
+    <t>1198.751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   1.624 </t>
+  </si>
+  <si>
+    <t>13180.087</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.525  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9.786  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.14e+04 </t>
   </si>
 </sst>
 </file>
@@ -1436,7 +1475,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1458,7 +1497,7 @@
         <v>108</v>
       </c>
       <c r="C1" t="s">
-        <v>109</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1472,7 +1511,7 @@
         <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1486,7 +1525,7 @@
         <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1500,7 +1539,7 @@
         <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1517,7 +1556,7 @@
         <v>17</v>
       </c>
       <c r="E5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -1525,7 +1564,7 @@
         <v>19</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>113</v>
       </c>
       <c r="C6" t="s">
         <v>21</v>
@@ -1539,13 +1578,13 @@
         <v>23</v>
       </c>
       <c r="B7" t="s">
-        <v>115</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
         <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1553,13 +1592,13 @@
         <v>27</v>
       </c>
       <c r="B8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C8" t="s">
         <v>29</v>
       </c>
       <c r="D8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -1567,13 +1606,13 @@
         <v>31</v>
       </c>
       <c r="B9" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C9" t="s">
         <v>33</v>
       </c>
       <c r="D9" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -1587,12 +1626,12 @@
         <v>33</v>
       </c>
       <c r="D10" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>121</v>
+        <v>37</v>
       </c>
       <c r="B11" t="s">
         <v>38</v>
@@ -1615,119 +1654,128 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
+        <v>44</v>
+      </c>
+      <c r="B12" t="s">
+        <v>120</v>
+      </c>
+      <c r="C12" t="s">
+        <v>121</v>
+      </c>
+      <c r="D12" t="s">
         <v>122</v>
       </c>
-      <c r="B12" t="s">
+      <c r="E12" t="s">
         <v>123</v>
       </c>
-      <c r="C12" t="s">
+      <c r="F12" t="s">
         <v>124</v>
       </c>
-      <c r="D12" t="s">
+      <c r="G12" t="s">
         <v>125</v>
-      </c>
-      <c r="E12" t="s">
-        <v>55</v>
-      </c>
-      <c r="F12" t="s">
-        <v>126</v>
-      </c>
-      <c r="G12" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
+        <v>126</v>
+      </c>
+      <c r="B13" t="s">
+        <v>127</v>
+      </c>
+      <c r="C13" t="s">
         <v>128</v>
       </c>
-      <c r="B13" t="s">
+      <c r="D13" t="s">
         <v>129</v>
       </c>
-      <c r="C13" t="s">
+      <c r="E13" t="s">
         <v>130</v>
       </c>
-      <c r="D13" t="s">
+      <c r="F13" t="s">
         <v>131</v>
       </c>
-      <c r="E13" t="s">
+      <c r="G13" t="s">
         <v>132</v>
-      </c>
-      <c r="F13" t="s">
-        <v>133</v>
-      </c>
-      <c r="G13" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
+        <v>133</v>
+      </c>
+      <c r="B14" t="s">
+        <v>134</v>
+      </c>
+      <c r="C14" t="s">
         <v>135</v>
       </c>
-      <c r="B14" t="s">
+      <c r="D14" t="s">
         <v>136</v>
       </c>
-      <c r="C14" t="s">
+      <c r="E14" t="s">
         <v>137</v>
       </c>
-      <c r="D14" t="s">
+      <c r="F14" t="s">
         <v>138</v>
       </c>
-      <c r="E14" t="s">
+      <c r="G14" t="s">
         <v>139</v>
-      </c>
-      <c r="F14" t="s">
-        <v>140</v>
-      </c>
-      <c r="G14" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
+        <v>79</v>
+      </c>
+      <c r="B15" t="s">
+        <v>140</v>
+      </c>
+      <c r="C15" t="s">
+        <v>81</v>
+      </c>
+      <c r="D15" t="s">
+        <v>141</v>
+      </c>
+      <c r="E15" t="s">
         <v>142</v>
       </c>
-      <c r="B15" t="s">
+      <c r="F15" t="s">
         <v>143</v>
       </c>
-      <c r="C15" t="s">
-        <v>137</v>
-      </c>
-      <c r="D15" t="s">
+      <c r="G15" t="s">
         <v>144</v>
-      </c>
-      <c r="E15" t="s">
-        <v>145</v>
-      </c>
-      <c r="F15" t="s">
-        <v>91</v>
-      </c>
-      <c r="G15" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="B16" t="s">
+        <v>145</v>
+      </c>
+      <c r="C16" t="s">
+        <v>81</v>
+      </c>
+      <c r="D16" t="s">
+        <v>146</v>
+      </c>
+      <c r="E16" t="s">
         <v>147</v>
       </c>
-      <c r="C16" t="s">
-        <v>94</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="F16" t="s">
         <v>148</v>
+      </c>
+      <c r="G16" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B17" t="s">
         <v>149</v>
       </c>
       <c r="C17" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D17" t="s">
         <v>150</v>
@@ -1735,30 +1783,44 @@
     </row>
     <row r="18" spans="1:7">
       <c r="A18" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B18" t="s">
+        <v>97</v>
+      </c>
+      <c r="C18" t="s">
+        <v>98</v>
+      </c>
+      <c r="D18" t="s">
         <v>151</v>
-      </c>
-      <c r="C18" t="s">
-        <v>102</v>
-      </c>
-      <c r="D18" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" t="s">
+        <v>100</v>
+      </c>
+      <c r="B19" t="s">
+        <v>152</v>
+      </c>
+      <c r="C19" t="s">
+        <v>102</v>
+      </c>
+      <c r="D19" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" t="s">
         <v>104</v>
       </c>
-      <c r="B19" t="s">
-        <v>153</v>
-      </c>
-      <c r="C19" t="s">
+      <c r="B20" t="s">
+        <v>154</v>
+      </c>
+      <c r="C20" t="s">
         <v>106</v>
       </c>
-      <c r="D19" t="s">
-        <v>154</v>
+      <c r="D20" t="s">
+        <v>155</v>
       </c>
     </row>
   </sheetData>
@@ -1772,7 +1834,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1791,10 +1853,10 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>156</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>157</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1808,7 +1870,7 @@
         <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>5</v>
+        <v>158</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1822,7 +1884,7 @@
         <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>159</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1836,7 +1898,7 @@
         <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1853,7 +1915,7 @@
         <v>17</v>
       </c>
       <c r="E5" t="s">
-        <v>18</v>
+        <v>161</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -1861,13 +1923,13 @@
         <v>19</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>113</v>
       </c>
       <c r="C6" t="s">
         <v>21</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>162</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -1875,13 +1937,13 @@
         <v>23</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>163</v>
       </c>
       <c r="C7" t="s">
         <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1889,13 +1951,13 @@
         <v>27</v>
       </c>
       <c r="B8" t="s">
-        <v>28</v>
+        <v>165</v>
       </c>
       <c r="C8" t="s">
         <v>29</v>
       </c>
       <c r="D8" t="s">
-        <v>30</v>
+        <v>166</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -1903,13 +1965,13 @@
         <v>31</v>
       </c>
       <c r="B9" t="s">
-        <v>32</v>
+        <v>167</v>
       </c>
       <c r="C9" t="s">
         <v>33</v>
       </c>
       <c r="D9" t="s">
-        <v>34</v>
+        <v>168</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -1923,12 +1985,12 @@
         <v>33</v>
       </c>
       <c r="D10" t="s">
-        <v>34</v>
+        <v>168</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>37</v>
+        <v>169</v>
       </c>
       <c r="B11" t="s">
         <v>38</v>
@@ -1951,219 +2013,196 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>44</v>
+        <v>170</v>
       </c>
       <c r="B12" t="s">
-        <v>45</v>
+        <v>171</v>
       </c>
       <c r="C12" t="s">
-        <v>157</v>
+        <v>172</v>
       </c>
       <c r="D12" t="s">
-        <v>158</v>
+        <v>173</v>
       </c>
       <c r="E12" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="F12" t="s">
-        <v>49</v>
+        <v>174</v>
       </c>
       <c r="G12" t="s">
-        <v>50</v>
+        <v>175</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>51</v>
+        <v>176</v>
       </c>
       <c r="B13" t="s">
-        <v>159</v>
+        <v>177</v>
       </c>
       <c r="C13" t="s">
-        <v>53</v>
+        <v>178</v>
       </c>
       <c r="D13" t="s">
-        <v>160</v>
+        <v>179</v>
       </c>
       <c r="E13" t="s">
-        <v>55</v>
+        <v>180</v>
       </c>
       <c r="F13" t="s">
-        <v>161</v>
+        <v>181</v>
       </c>
       <c r="G13" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
-        <v>58</v>
+        <v>183</v>
       </c>
       <c r="B14" t="s">
-        <v>163</v>
+        <v>184</v>
       </c>
       <c r="C14" t="s">
-        <v>60</v>
+        <v>185</v>
       </c>
       <c r="D14" t="s">
-        <v>164</v>
+        <v>186</v>
       </c>
       <c r="E14" t="s">
-        <v>165</v>
+        <v>187</v>
       </c>
       <c r="F14" t="s">
-        <v>63</v>
+        <v>188</v>
       </c>
       <c r="G14" t="s">
-        <v>166</v>
+        <v>189</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
-        <v>65</v>
+        <v>190</v>
       </c>
       <c r="B15" t="s">
-        <v>167</v>
+        <v>191</v>
       </c>
       <c r="C15" t="s">
-        <v>168</v>
+        <v>185</v>
       </c>
       <c r="D15" t="s">
-        <v>169</v>
+        <v>192</v>
       </c>
       <c r="E15" t="s">
-        <v>170</v>
+        <v>187</v>
       </c>
       <c r="F15" t="s">
-        <v>171</v>
+        <v>193</v>
       </c>
       <c r="G15" t="s">
-        <v>172</v>
+        <v>194</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
-        <v>72</v>
+        <v>195</v>
       </c>
       <c r="B16" t="s">
-        <v>173</v>
+        <v>196</v>
       </c>
       <c r="C16" t="s">
-        <v>174</v>
+        <v>144</v>
       </c>
       <c r="D16" t="s">
-        <v>175</v>
+        <v>197</v>
       </c>
       <c r="E16" t="s">
-        <v>176</v>
+        <v>55</v>
       </c>
       <c r="F16" t="s">
-        <v>177</v>
+        <v>84</v>
       </c>
       <c r="G16" t="s">
-        <v>178</v>
+        <v>148</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" t="s">
-        <v>179</v>
+        <v>198</v>
       </c>
       <c r="B17" t="s">
-        <v>180</v>
+        <v>199</v>
       </c>
       <c r="C17" t="s">
-        <v>181</v>
+        <v>81</v>
       </c>
       <c r="D17" t="s">
-        <v>182</v>
+        <v>200</v>
       </c>
       <c r="E17" t="s">
-        <v>183</v>
+        <v>55</v>
       </c>
       <c r="F17" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="G17" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" t="s">
-        <v>184</v>
+        <v>92</v>
       </c>
       <c r="B18" t="s">
-        <v>185</v>
+        <v>201</v>
       </c>
       <c r="C18" t="s">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="D18" t="s">
-        <v>186</v>
-      </c>
-      <c r="E18" t="s">
-        <v>187</v>
-      </c>
-      <c r="F18" t="s">
-        <v>188</v>
-      </c>
-      <c r="G18" t="s">
-        <v>189</v>
+        <v>202</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B19" t="s">
-        <v>190</v>
+        <v>203</v>
       </c>
       <c r="C19" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="D19" t="s">
-        <v>191</v>
+        <v>204</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B20" t="s">
-        <v>97</v>
+        <v>205</v>
       </c>
       <c r="C20" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="D20" t="s">
-        <v>192</v>
+        <v>206</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B21" t="s">
-        <v>193</v>
+        <v>207</v>
       </c>
       <c r="C21" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="D21" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22" t="s">
-        <v>104</v>
-      </c>
-      <c r="B22" t="s">
-        <v>195</v>
-      </c>
-      <c r="C22" t="s">
-        <v>106</v>
-      </c>
-      <c r="D22" t="s">
-        <v>196</v>
+        <v>208</v>
       </c>
     </row>
   </sheetData>
@@ -2196,10 +2235,10 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>108</v>
+        <v>156</v>
       </c>
       <c r="C1" t="s">
-        <v>109</v>
+        <v>157</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2213,7 +2252,7 @@
         <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>110</v>
+        <v>209</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2227,7 +2266,7 @@
         <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>111</v>
+        <v>210</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -2241,7 +2280,7 @@
         <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>197</v>
+        <v>211</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -2258,7 +2297,7 @@
         <v>17</v>
       </c>
       <c r="E5" t="s">
-        <v>198</v>
+        <v>212</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -2266,13 +2305,13 @@
         <v>19</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>113</v>
       </c>
       <c r="C6" t="s">
         <v>21</v>
       </c>
       <c r="D6" t="s">
-        <v>199</v>
+        <v>213</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -2280,13 +2319,13 @@
         <v>23</v>
       </c>
       <c r="B7" t="s">
-        <v>115</v>
+        <v>163</v>
       </c>
       <c r="C7" t="s">
         <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>116</v>
+        <v>214</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -2294,13 +2333,13 @@
         <v>27</v>
       </c>
       <c r="B8" t="s">
-        <v>117</v>
+        <v>215</v>
       </c>
       <c r="C8" t="s">
         <v>29</v>
       </c>
       <c r="D8" t="s">
-        <v>118</v>
+        <v>216</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -2308,13 +2347,13 @@
         <v>31</v>
       </c>
       <c r="B9" t="s">
-        <v>119</v>
+        <v>217</v>
       </c>
       <c r="C9" t="s">
         <v>33</v>
       </c>
       <c r="D9" t="s">
-        <v>120</v>
+        <v>168</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -2328,12 +2367,12 @@
         <v>33</v>
       </c>
       <c r="D10" t="s">
-        <v>120</v>
+        <v>168</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>121</v>
+        <v>169</v>
       </c>
       <c r="B11" t="s">
         <v>38</v>
@@ -2356,91 +2395,91 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>122</v>
+        <v>218</v>
       </c>
       <c r="B12" t="s">
-        <v>200</v>
+        <v>219</v>
       </c>
       <c r="C12" t="s">
-        <v>201</v>
+        <v>220</v>
       </c>
       <c r="D12" t="s">
-        <v>202</v>
+        <v>221</v>
       </c>
       <c r="E12" t="s">
-        <v>55</v>
+        <v>222</v>
       </c>
       <c r="F12" t="s">
-        <v>203</v>
+        <v>223</v>
       </c>
       <c r="G12" t="s">
-        <v>204</v>
+        <v>224</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>128</v>
+        <v>225</v>
       </c>
       <c r="B13" t="s">
-        <v>205</v>
+        <v>226</v>
       </c>
       <c r="C13" t="s">
-        <v>206</v>
+        <v>220</v>
       </c>
       <c r="D13" t="s">
-        <v>207</v>
+        <v>227</v>
       </c>
       <c r="E13" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="F13" t="s">
-        <v>209</v>
+        <v>228</v>
       </c>
       <c r="G13" t="s">
-        <v>210</v>
+        <v>229</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
-        <v>211</v>
+        <v>195</v>
       </c>
       <c r="B14" t="s">
-        <v>212</v>
+        <v>230</v>
       </c>
       <c r="C14" t="s">
-        <v>181</v>
+        <v>144</v>
       </c>
       <c r="D14" t="s">
-        <v>213</v>
+        <v>231</v>
       </c>
       <c r="E14" t="s">
-        <v>214</v>
+        <v>55</v>
       </c>
       <c r="F14" t="s">
         <v>84</v>
       </c>
       <c r="G14" t="s">
-        <v>181</v>
+        <v>148</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
-        <v>215</v>
+        <v>198</v>
       </c>
       <c r="B15" t="s">
-        <v>216</v>
+        <v>199</v>
       </c>
       <c r="C15" t="s">
         <v>81</v>
       </c>
       <c r="D15" t="s">
-        <v>217</v>
+        <v>232</v>
       </c>
       <c r="E15" t="s">
-        <v>218</v>
+        <v>55</v>
       </c>
       <c r="F15" t="s">
-        <v>219</v>
+        <v>81</v>
       </c>
       <c r="G15" t="s">
         <v>91</v>
@@ -2451,13 +2490,13 @@
         <v>92</v>
       </c>
       <c r="B16" t="s">
-        <v>220</v>
+        <v>233</v>
       </c>
       <c r="C16" t="s">
         <v>94</v>
       </c>
       <c r="D16" t="s">
-        <v>221</v>
+        <v>234</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -2465,13 +2504,13 @@
         <v>96</v>
       </c>
       <c r="B17" t="s">
-        <v>149</v>
+        <v>203</v>
       </c>
       <c r="C17" t="s">
         <v>98</v>
       </c>
       <c r="D17" t="s">
-        <v>222</v>
+        <v>235</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -2479,13 +2518,13 @@
         <v>100</v>
       </c>
       <c r="B18" t="s">
-        <v>223</v>
+        <v>236</v>
       </c>
       <c r="C18" t="s">
         <v>102</v>
       </c>
       <c r="D18" t="s">
-        <v>152</v>
+        <v>206</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -2493,13 +2532,13 @@
         <v>104</v>
       </c>
       <c r="B19" t="s">
-        <v>224</v>
+        <v>237</v>
       </c>
       <c r="C19" t="s">
         <v>106</v>
       </c>
       <c r="D19" t="s">
-        <v>225</v>
+        <v>238</v>
       </c>
     </row>
   </sheetData>
